--- a/case study 80(10%).xlsx
+++ b/case study 80(10%).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Imperial College London\School Work\Year 4\Research project\GITTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{5F261379-F35E-4EEE-9F6E-82B3E217254F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA2821E9-D8AB-45DA-A87F-BE3DAA64A2A3}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{5F261379-F35E-4EEE-9F6E-82B3E217254F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1952BCF7-542C-4E2B-9C62-F30177BA72E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="42">
   <si>
     <t>NaN</t>
   </si>
@@ -1660,16 +1660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN257"/>
+  <dimension ref="A1:AO257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI8" sqref="AI8"/>
+      <selection pane="bottomRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="18" width="12.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" style="3" hidden="1" customWidth="1"/>
@@ -1682,10 +1682,12 @@
     <col min="31" max="31" width="12.7109375" style="3" customWidth="1"/>
     <col min="32" max="32" width="12.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="33" max="34" width="12.7109375" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="3"/>
+    <col min="35" max="40" width="9.140625" style="3"/>
+    <col min="41" max="41" width="12.7109375" style="3" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="2" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1803,8 +1805,11 @@
       <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="AO1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>200</v>
       </c>
@@ -2028,8 +2033,11 @@
         <f>AK3/AM3</f>
         <v>0.34862043734540843</v>
       </c>
+      <c r="AO3" s="3">
+        <v>2.6043884824006401E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>200</v>
       </c>
@@ -2161,8 +2169,11 @@
         <f t="shared" ref="AN4:AN67" si="9">AK4/AM4</f>
         <v>0.31452918480572778</v>
       </c>
+      <c r="AO4" s="3">
+        <v>2.39047940351583E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>200</v>
       </c>
@@ -2294,8 +2305,11 @@
         <f t="shared" si="9"/>
         <v>0.28651352819357945</v>
       </c>
+      <c r="AO5" s="3">
+        <v>2.26475853675903E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>200</v>
       </c>
@@ -2427,8 +2441,11 @@
         <f t="shared" si="9"/>
         <v>0.26312808322385156</v>
       </c>
+      <c r="AO6" s="3">
+        <v>2.15446789553176E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>200</v>
       </c>
@@ -2560,8 +2577,11 @@
         <f t="shared" si="9"/>
         <v>0.24332337212153354</v>
       </c>
+      <c r="AO7" s="3">
+        <v>2.0771813850699698E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>200</v>
       </c>
@@ -2693,8 +2713,11 @@
         <f t="shared" si="9"/>
         <v>0.2261927588028865</v>
       </c>
+      <c r="AO8" s="3">
+        <v>2.0041458333830201E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>200</v>
       </c>
@@ -2826,8 +2849,11 @@
         <f t="shared" si="9"/>
         <v>0.21134015088413405</v>
       </c>
+      <c r="AO9" s="3">
+        <v>1.9585202824578901E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>200</v>
       </c>
@@ -2959,8 +2985,11 @@
         <f t="shared" si="9"/>
         <v>0.19836036461563719</v>
       </c>
+      <c r="AO10" s="3">
+        <v>1.8736122846495101E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>200</v>
       </c>
@@ -3092,8 +3121,11 @@
         <f t="shared" si="9"/>
         <v>0.18686001065397043</v>
       </c>
+      <c r="AO11" s="3">
+        <v>1.8800126593248801E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>200</v>
       </c>
@@ -3225,8 +3257,11 @@
         <f t="shared" si="9"/>
         <v>0.17662340556988598</v>
       </c>
+      <c r="AO12" s="3">
+        <v>1.8171177369914499E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>200</v>
       </c>
@@ -3358,8 +3393,11 @@
         <f t="shared" si="9"/>
         <v>0.16745164334900572</v>
       </c>
+      <c r="AO13" s="3">
+        <v>1.7628853270953499E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>200</v>
       </c>
@@ -3491,8 +3529,11 @@
         <f t="shared" si="9"/>
         <v>0.15917397412451775</v>
       </c>
+      <c r="AO14" s="3">
+        <v>1.7487955270548999E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>200</v>
       </c>
@@ -3624,8 +3665,11 @@
         <f t="shared" si="9"/>
         <v>0.15166240042288454</v>
       </c>
+      <c r="AO15" s="3">
+        <v>1.7291555888510401E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>200</v>
       </c>
@@ -3757,8 +3801,11 @@
         <f t="shared" si="9"/>
         <v>0.144888776993713</v>
       </c>
+      <c r="AO16" s="3">
+        <v>1.7040072505764101E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>200</v>
       </c>
@@ -3890,8 +3937,11 @@
         <f t="shared" si="9"/>
         <v>0.13880776025965968</v>
       </c>
+      <c r="AO17" s="3">
+        <v>1.6934609507852E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>250</v>
       </c>
@@ -3910,8 +3960,8 @@
       <c r="F18" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G18" s="1">
-        <v>9.0690450043680298E-3</v>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>180</v>
@@ -4022,8 +4072,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO18" s="1">
+        <v>9.0690450043680298E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>250</v>
       </c>
@@ -4042,8 +4095,8 @@
       <c r="F19" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G19" s="1">
-        <v>1.9114683191761801E-2</v>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>180</v>
@@ -4154,8 +4207,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO19" s="1">
+        <v>1.9114683191761801E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>250</v>
       </c>
@@ -4287,8 +4343,11 @@
         <f t="shared" si="9"/>
         <v>0.33121342448649854</v>
       </c>
+      <c r="AO20" s="3">
+        <v>1.4758383015974199E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>250</v>
       </c>
@@ -4420,8 +4479,11 @@
         <f t="shared" si="9"/>
         <v>0.30571731910225686</v>
       </c>
+      <c r="AO21" s="3">
+        <v>1.3815830246401499E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>250</v>
       </c>
@@ -4553,8 +4615,11 @@
         <f t="shared" si="9"/>
         <v>0.28379907647321551</v>
       </c>
+      <c r="AO22" s="3">
+        <v>1.34598071272057E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>250</v>
       </c>
@@ -4686,8 +4751,11 @@
         <f t="shared" si="9"/>
         <v>0.26489082505399042</v>
       </c>
+      <c r="AO23" s="3">
+        <v>1.25610032951526E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>250</v>
       </c>
@@ -4819,8 +4887,11 @@
         <f t="shared" si="9"/>
         <v>0.24834841256382964</v>
       </c>
+      <c r="AO24" s="3">
+        <v>1.2375699522022301E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>250</v>
       </c>
@@ -4952,8 +5023,11 @@
         <f t="shared" si="9"/>
         <v>0.23373029521159544</v>
       </c>
+      <c r="AO25" s="3">
+        <v>1.20239453826952E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>250</v>
       </c>
@@ -5085,8 +5159,11 @@
         <f t="shared" si="9"/>
         <v>0.2207313835118867</v>
       </c>
+      <c r="AO26" s="3">
+        <v>1.16287468706569E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>250</v>
       </c>
@@ -5218,8 +5295,11 @@
         <f t="shared" si="9"/>
         <v>0.2091028671041518</v>
       </c>
+      <c r="AO27" s="3">
+        <v>1.1349781722742701E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>250</v>
       </c>
@@ -5351,8 +5431,11 @@
         <f t="shared" si="9"/>
         <v>0.19863649828640195</v>
       </c>
+      <c r="AO28" s="3">
+        <v>1.1105932078463001E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>250</v>
       </c>
@@ -5484,8 +5567,11 @@
         <f t="shared" si="9"/>
         <v>0.1891489090914612</v>
       </c>
+      <c r="AO29" s="3">
+        <v>1.09342759215404E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>250</v>
       </c>
@@ -5617,8 +5703,11 @@
         <f t="shared" si="9"/>
         <v>0.18055741359968142</v>
       </c>
+      <c r="AO30" s="3">
+        <v>1.0765682844958E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>250</v>
       </c>
@@ -5750,8 +5839,11 @@
         <f t="shared" si="9"/>
         <v>0.17270786397973564</v>
       </c>
+      <c r="AO31" s="3">
+        <v>1.06294211089138E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>250</v>
       </c>
@@ -5883,8 +5975,11 @@
         <f t="shared" si="9"/>
         <v>0.16550155605427239</v>
       </c>
+      <c r="AO32" s="3">
+        <v>1.0489951736690701E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>300</v>
       </c>
@@ -5903,8 +5998,8 @@
       <c r="F33" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G33" s="1">
-        <v>3.4463079355610798E-2</v>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <v>180</v>
@@ -6015,8 +6110,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO33" s="1">
+        <v>3.4463079355610798E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>300</v>
       </c>
@@ -6035,8 +6133,8 @@
       <c r="F34" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G34" s="1">
-        <v>2.0778740416160901E-2</v>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>180</v>
@@ -6147,8 +6245,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO34" s="1">
+        <v>2.0778740416160901E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>300</v>
       </c>
@@ -6167,8 +6268,8 @@
       <c r="F35" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G35" s="1">
-        <v>1.27984739460068E-2</v>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>180</v>
@@ -6279,8 +6380,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO35" s="1">
+        <v>1.27984739460068E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>300</v>
       </c>
@@ -6299,8 +6403,8 @@
       <c r="F36" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G36" s="1">
-        <v>1.13293755837004E-2</v>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>180</v>
@@ -6411,8 +6515,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO36" s="1">
+        <v>1.13293755837004E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>300</v>
       </c>
@@ -6544,8 +6651,11 @@
         <f t="shared" si="9"/>
         <v>0.31974615167132259</v>
       </c>
+      <c r="AO37" s="3">
+        <v>1.05362599788423E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>300</v>
       </c>
@@ -6677,8 +6787,11 @@
         <f t="shared" si="9"/>
         <v>0.29942813861763939</v>
       </c>
+      <c r="AO38" s="3">
+        <v>1.02202133464325E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>300</v>
       </c>
@@ -6810,8 +6923,11 @@
         <f t="shared" si="9"/>
         <v>0.28151591048803415</v>
       </c>
+      <c r="AO39" s="3">
+        <v>9.80763086509805E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>300</v>
       </c>
@@ -6943,8 +7059,11 @@
         <f t="shared" si="9"/>
         <v>0.26561309428841912</v>
       </c>
+      <c r="AO40" s="3">
+        <v>9.5285891247454905E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>300</v>
       </c>
@@ -7076,8 +7195,11 @@
         <f t="shared" si="9"/>
         <v>0.25143403816587623</v>
       </c>
+      <c r="AO41" s="3">
+        <v>9.2976680977796908E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>300</v>
       </c>
@@ -7209,8 +7331,11 @@
         <f t="shared" si="9"/>
         <v>0.23864654580421796</v>
       </c>
+      <c r="AO42" s="3">
+        <v>9.0869364776685196E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>300</v>
       </c>
@@ -7319,7 +7444,7 @@
         <v>0.300872234910942</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="4"/>
+        <f>(AE43+20.6)/19.32</f>
         <v>16.495032712366029</v>
       </c>
       <c r="AJ43" s="3">
@@ -7342,8 +7467,11 @@
         <f t="shared" si="9"/>
         <v>0.22711905197040305</v>
       </c>
+      <c r="AO43" s="3">
+        <v>8.9853195707208702E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>300</v>
       </c>
@@ -7475,8 +7603,11 @@
         <f t="shared" si="9"/>
         <v>0.21666588490216113</v>
       </c>
+      <c r="AO44" s="3">
+        <v>8.8639129303135205E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>300</v>
       </c>
@@ -7608,8 +7739,11 @@
         <f t="shared" si="9"/>
         <v>0.20725787723087183</v>
       </c>
+      <c r="AO45" s="3">
+        <v>8.6627048305855606E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>300</v>
       </c>
@@ -7741,8 +7875,11 @@
         <f t="shared" si="9"/>
         <v>0.19853160585247742</v>
       </c>
+      <c r="AO46" s="3">
+        <v>8.5614925161052405E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>300</v>
       </c>
@@ -7874,8 +8011,11 @@
         <f t="shared" si="9"/>
         <v>0.19050130352690145</v>
       </c>
+      <c r="AO47" s="3">
+        <v>8.4833746763751505E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>350</v>
       </c>
@@ -7894,8 +8034,8 @@
       <c r="F48" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G48" s="1">
-        <v>3.4839874484554098E-2</v>
+      <c r="G48" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>180</v>
@@ -8006,8 +8146,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO48" s="1">
+        <v>3.4839874484554098E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>350</v>
       </c>
@@ -8026,8 +8169,8 @@
       <c r="F49" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G49" s="1">
-        <v>2.2964997541271601E-2</v>
+      <c r="G49" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>180</v>
@@ -8138,8 +8281,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO49" s="1">
+        <v>2.2964997541271601E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>350</v>
       </c>
@@ -8158,8 +8304,8 @@
       <c r="F50" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G50" s="1">
-        <v>1.2882872701325401E-2</v>
+      <c r="G50" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>180</v>
@@ -8270,8 +8416,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO50" s="1">
+        <v>1.2882872701325401E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>350</v>
       </c>
@@ -8290,8 +8439,8 @@
       <c r="F51" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G51" s="1">
-        <v>1.04102280501736E-2</v>
+      <c r="G51" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>180</v>
@@ -8402,8 +8551,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO51" s="1">
+        <v>1.04102280501736E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>350</v>
       </c>
@@ -8422,8 +8574,8 @@
       <c r="F52" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G52" s="1">
-        <v>9.6528021743012508E-3</v>
+      <c r="G52" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>180</v>
@@ -8534,8 +8686,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO52" s="1">
+        <v>9.6528021743012508E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>350</v>
       </c>
@@ -8554,8 +8709,8 @@
       <c r="F53" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G53" s="1">
-        <v>8.9772431641903308E-3</v>
+      <c r="G53" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>180</v>
@@ -8666,8 +8821,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO53" s="1">
+        <v>8.9772431641903308E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>350</v>
       </c>
@@ -8799,8 +8957,11 @@
         <f t="shared" si="9"/>
         <v>0.31170681389376026</v>
       </c>
+      <c r="AO54" s="3">
+        <v>8.7042587082123007E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>350</v>
       </c>
@@ -8932,8 +9093,11 @@
         <f t="shared" si="9"/>
         <v>0.29486747314164369</v>
       </c>
+      <c r="AO55" s="3">
+        <v>8.4313216328814802E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>350</v>
       </c>
@@ -9065,8 +9229,11 @@
         <f t="shared" si="9"/>
         <v>0.27967780470256021</v>
       </c>
+      <c r="AO56" s="3">
+        <v>8.2835766283560798E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>350</v>
       </c>
@@ -9198,8 +9365,11 @@
         <f t="shared" si="9"/>
         <v>0.26599704003926544</v>
       </c>
+      <c r="AO57" s="3">
+        <v>8.1127112990311799E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>350</v>
       </c>
@@ -9331,8 +9501,11 @@
         <f t="shared" si="9"/>
         <v>0.25359220976089009</v>
       </c>
+      <c r="AO58" s="3">
+        <v>7.9859484752689107E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>350</v>
       </c>
@@ -9464,8 +9637,11 @@
         <f t="shared" si="9"/>
         <v>0.24231836859153899</v>
       </c>
+      <c r="AO59" s="3">
+        <v>7.8455977273267606E-3</v>
+      </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>350</v>
       </c>
@@ -9597,8 +9773,11 @@
         <f t="shared" si="9"/>
         <v>0.23198247583006459</v>
       </c>
+      <c r="AO60" s="3">
+        <v>7.7360636634903899E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>350</v>
       </c>
@@ -9730,8 +9909,11 @@
         <f t="shared" si="9"/>
         <v>0.22258009749800164</v>
       </c>
+      <c r="AO61" s="3">
+        <v>7.6531819038819001E-3</v>
+      </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>350</v>
       </c>
@@ -9863,8 +10045,11 @@
         <f t="shared" si="9"/>
         <v>0.21382482790572727</v>
       </c>
+      <c r="AO62" s="3">
+        <v>7.5739246031549298E-3</v>
+      </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>400</v>
       </c>
@@ -9883,8 +10068,8 @@
       <c r="F63" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G63" s="1">
-        <v>6.3717423918650696E-3</v>
+      <c r="G63" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>180</v>
@@ -9995,8 +10180,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO63" s="1">
+        <v>6.3717423918650696E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>400</v>
       </c>
@@ -10015,8 +10203,8 @@
       <c r="F64" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G64" s="1">
-        <v>6.3717423918650696E-3</v>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>180</v>
@@ -10127,8 +10315,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO64" s="1">
+        <v>6.3717423918650696E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>400</v>
       </c>
@@ -10147,8 +10338,8 @@
       <c r="F65" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G65" s="1">
-        <v>1.03135598462053E-2</v>
+      <c r="G65" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H65" s="1">
         <v>180</v>
@@ -10259,8 +10450,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO65" s="1">
+        <v>1.03135598462053E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>400</v>
       </c>
@@ -10279,8 +10473,8 @@
       <c r="F66" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G66" s="1">
-        <v>9.9835116521297604E-3</v>
+      <c r="G66" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H66" s="1">
         <v>180</v>
@@ -10391,8 +10585,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO66" s="1">
+        <v>9.9835116521297604E-3</v>
+      </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>400</v>
       </c>
@@ -10411,8 +10608,8 @@
       <c r="F67" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G67" s="1">
-        <v>8.9889229087889207E-3</v>
+      <c r="G67" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H67" s="1">
         <v>180</v>
@@ -10523,8 +10720,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO67" s="1">
+        <v>8.9889229087889207E-3</v>
+      </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>400</v>
       </c>
@@ -10543,8 +10743,8 @@
       <c r="F68" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G68" s="1">
-        <v>8.3653356072904608E-3</v>
+      <c r="G68" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>180</v>
@@ -10655,8 +10855,11 @@
         <f t="shared" ref="AN68:AN131" si="18">AK68/AM68</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AO68" s="1">
+        <v>8.3653356072904608E-3</v>
+      </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>400</v>
       </c>
@@ -10675,8 +10878,8 @@
       <c r="F69" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G69" s="1">
-        <v>8.1107987290159507E-3</v>
+      <c r="G69" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>180</v>
@@ -10787,8 +10990,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO69" s="1">
+        <v>8.1107987290159507E-3</v>
+      </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>400</v>
       </c>
@@ -10807,8 +11013,8 @@
       <c r="F70" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G70" s="1">
-        <v>7.9025826668375002E-3</v>
+      <c r="G70" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H70" s="1">
         <v>180</v>
@@ -10919,8 +11125,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO70" s="1">
+        <v>7.9025826668375002E-3</v>
+      </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>400</v>
       </c>
@@ -11052,8 +11261,11 @@
         <f t="shared" si="18"/>
         <v>0.30584873632431997</v>
       </c>
+      <c r="AO71" s="3">
+        <v>7.5976494672223898E-3</v>
+      </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>400</v>
       </c>
@@ -11185,8 +11397,11 @@
         <f t="shared" si="18"/>
         <v>0.29140141884628562</v>
       </c>
+      <c r="AO72" s="3">
+        <v>7.4644872226920901E-3</v>
+      </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>400</v>
       </c>
@@ -11318,8 +11533,11 @@
         <f t="shared" si="18"/>
         <v>0.27832827750222805</v>
       </c>
+      <c r="AO73" s="3">
+        <v>7.3087063391193601E-3</v>
+      </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>400</v>
       </c>
@@ -11451,8 +11669,11 @@
         <f t="shared" si="18"/>
         <v>0.26626070914885902</v>
       </c>
+      <c r="AO74" s="3">
+        <v>7.2402320429515096E-3</v>
+      </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>400</v>
       </c>
@@ -11584,8 +11805,11 @@
         <f t="shared" si="18"/>
         <v>0.25519269208892414</v>
       </c>
+      <c r="AO75" s="3">
+        <v>7.1433753073906897E-3</v>
+      </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>400</v>
       </c>
@@ -11717,8 +11941,11 @@
         <f t="shared" si="18"/>
         <v>0.24518273397153198</v>
       </c>
+      <c r="AO76" s="3">
+        <v>7.0533490837965604E-3</v>
+      </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>400</v>
       </c>
@@ -11850,8 +12077,11 @@
         <f t="shared" si="18"/>
         <v>0.23566666117949292</v>
       </c>
+      <c r="AO77" s="3">
+        <v>7.00459327227287E-3</v>
+      </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>450</v>
       </c>
@@ -11870,8 +12100,8 @@
       <c r="F78" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G78" s="1">
-        <v>6.0387639108797396E-3</v>
+      <c r="G78" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H78" s="1">
         <v>180</v>
@@ -11982,8 +12212,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO78" s="1">
+        <v>6.0387639108797396E-3</v>
+      </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>450</v>
       </c>
@@ -12002,8 +12235,8 @@
       <c r="F79" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G79" s="1">
-        <v>2.5881948580447501E-2</v>
+      <c r="G79" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H79" s="1">
         <v>180</v>
@@ -12114,8 +12347,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO79" s="1">
+        <v>2.5881948580447501E-2</v>
+      </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>450</v>
       </c>
@@ -12134,8 +12370,8 @@
       <c r="F80" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G80" s="1">
-        <v>1.66206496812705E-2</v>
+      <c r="G80" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H80" s="1">
         <v>180</v>
@@ -12246,8 +12482,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO80" s="1">
+        <v>1.66206496812705E-2</v>
+      </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>450</v>
       </c>
@@ -12266,8 +12505,8 @@
       <c r="F81" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G81" s="1">
-        <v>1.03118363643114E-2</v>
+      <c r="G81" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H81" s="1">
         <v>180</v>
@@ -12378,8 +12617,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO81" s="1">
+        <v>1.03118363643114E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>450</v>
       </c>
@@ -12398,8 +12640,8 @@
       <c r="F82" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G82" s="1">
-        <v>8.10635860615244E-3</v>
+      <c r="G82" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H82" s="1">
         <v>180</v>
@@ -12510,8 +12752,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO82" s="1">
+        <v>8.10635860615244E-3</v>
+      </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>450</v>
       </c>
@@ -12530,8 +12775,8 @@
       <c r="F83" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G83" s="1">
-        <v>8.10635860615244E-3</v>
+      <c r="G83" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>180</v>
@@ -12642,8 +12887,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO83" s="1">
+        <v>8.10635860615244E-3</v>
+      </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>450</v>
       </c>
@@ -12662,8 +12910,8 @@
       <c r="F84" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G84" s="1">
-        <v>7.6742448057035197E-3</v>
+      <c r="G84" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H84" s="1">
         <v>180</v>
@@ -12774,8 +13022,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO84" s="1">
+        <v>7.6742448057035197E-3</v>
+      </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>450</v>
       </c>
@@ -12794,8 +13045,8 @@
       <c r="F85" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G85" s="1">
-        <v>7.4147273972416002E-3</v>
+      <c r="G85" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H85" s="1">
         <v>180</v>
@@ -12906,8 +13157,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO85" s="1">
+        <v>7.4147273972416002E-3</v>
+      </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>450</v>
       </c>
@@ -12926,8 +13180,8 @@
       <c r="F86" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G86" s="1">
-        <v>7.1290454910513702E-3</v>
+      <c r="G86" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H86" s="1">
         <v>180</v>
@@ -13038,8 +13292,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO86" s="1">
+        <v>7.1290454910513702E-3</v>
+      </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>450</v>
       </c>
@@ -13058,8 +13315,8 @@
       <c r="F87" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G87" s="1">
-        <v>7.1290454910513702E-3</v>
+      <c r="G87" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H87" s="1">
         <v>180</v>
@@ -13170,8 +13427,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO87" s="1">
+        <v>7.1290454910513702E-3</v>
+      </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>450</v>
       </c>
@@ -13303,8 +13563,11 @@
         <f t="shared" si="18"/>
         <v>0.30128895539635642</v>
       </c>
+      <c r="AO88" s="3">
+        <v>6.9043121443247103E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>450</v>
       </c>
@@ -13436,8 +13699,11 @@
         <f t="shared" si="18"/>
         <v>0.28874220036258763</v>
       </c>
+      <c r="AO89" s="3">
+        <v>6.7707241953978399E-3</v>
+      </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>450</v>
       </c>
@@ -13569,8 +13835,11 @@
         <f t="shared" si="18"/>
         <v>0.27714370277705802</v>
       </c>
+      <c r="AO90" s="3">
+        <v>6.7046764597948798E-3</v>
+      </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>450</v>
       </c>
@@ -13702,8 +13971,11 @@
         <f t="shared" si="18"/>
         <v>0.26642752456202062</v>
       </c>
+      <c r="AO91" s="3">
+        <v>6.5990020110860302E-3</v>
+      </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>450</v>
       </c>
@@ -13835,8 +14107,11 @@
         <f t="shared" si="18"/>
         <v>0.25648280415977986</v>
       </c>
+      <c r="AO92" s="3">
+        <v>6.54520375594023E-3</v>
+      </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>500</v>
       </c>
@@ -13855,8 +14130,8 @@
       <c r="F93" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G93" s="1">
-        <v>5.75782135407088E-3</v>
+      <c r="G93" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H93" s="1">
         <v>180</v>
@@ -13967,8 +14242,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO93" s="1">
+        <v>5.75782135407088E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>500</v>
       </c>
@@ -13987,8 +14265,8 @@
       <c r="F94" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G94" s="1">
-        <v>1.2719002718702899E-2</v>
+      <c r="G94" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H94" s="1">
         <v>180</v>
@@ -14099,8 +14377,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO94" s="1">
+        <v>1.2719002718702899E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>500</v>
       </c>
@@ -14119,8 +14400,8 @@
       <c r="F95" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G95" s="1">
-        <v>1.8241449357312201E-2</v>
+      <c r="G95" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H95" s="1">
         <v>180</v>
@@ -14231,8 +14512,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO95" s="1">
+        <v>1.8241449357312201E-2</v>
+      </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>500</v>
       </c>
@@ -14251,8 +14535,8 @@
       <c r="F96" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G96" s="1">
-        <v>1.1748889015547499E-2</v>
+      <c r="G96" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H96" s="1">
         <v>180</v>
@@ -14363,8 +14647,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO96" s="1">
+        <v>1.1748889015547499E-2</v>
+      </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>500</v>
       </c>
@@ -14383,8 +14670,8 @@
       <c r="F97" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G97" s="1">
-        <v>8.5174810441087101E-3</v>
+      <c r="G97" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H97" s="1">
         <v>180</v>
@@ -14495,8 +14782,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO97" s="1">
+        <v>8.5174810441087101E-3</v>
+      </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>500</v>
       </c>
@@ -14515,8 +14805,8 @@
       <c r="F98" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G98" s="1">
-        <v>7.7172690878010604E-3</v>
+      <c r="G98" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>180</v>
@@ -14627,8 +14917,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO98" s="1">
+        <v>7.7172690878010604E-3</v>
+      </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>500</v>
       </c>
@@ -14647,8 +14940,8 @@
       <c r="F99" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G99" s="1">
-        <v>7.3048937590591001E-3</v>
+      <c r="G99" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H99" s="1">
         <v>180</v>
@@ -14759,8 +15052,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO99" s="1">
+        <v>7.3048937590591001E-3</v>
+      </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>500</v>
       </c>
@@ -14779,8 +15075,8 @@
       <c r="F100" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G100" s="1">
-        <v>7.0325576165221797E-3</v>
+      <c r="G100" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H100" s="1">
         <v>180</v>
@@ -14891,8 +15187,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO100" s="1">
+        <v>7.0325576165221797E-3</v>
+      </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>500</v>
       </c>
@@ -14911,8 +15210,8 @@
       <c r="F101" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G101" s="1">
-        <v>6.8372625415884297E-3</v>
+      <c r="G101" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H101" s="1">
         <v>180</v>
@@ -15023,8 +15322,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO101" s="1">
+        <v>6.8372625415884297E-3</v>
+      </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>500</v>
       </c>
@@ -15043,8 +15345,8 @@
       <c r="F102" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G102" s="1">
-        <v>6.6905381958195899E-3</v>
+      <c r="G102" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H102" s="1">
         <v>180</v>
@@ -15155,8 +15457,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO102" s="1">
+        <v>6.6905381958195899E-3</v>
+      </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>500</v>
       </c>
@@ -15175,8 +15480,8 @@
       <c r="F103" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G103" s="1">
-        <v>6.5566349459158799E-3</v>
+      <c r="G103" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H103" s="1">
         <v>180</v>
@@ -15287,8 +15592,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO103" s="1">
+        <v>6.5566349459158799E-3</v>
+      </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>500</v>
       </c>
@@ -15307,8 +15615,8 @@
       <c r="F104" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G104" s="1">
-        <v>6.4595718624092698E-3</v>
+      <c r="G104" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H104" s="1">
         <v>180</v>
@@ -15419,8 +15727,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO104" s="1">
+        <v>6.4595718624092698E-3</v>
+      </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>500</v>
       </c>
@@ -15552,8 +15863,11 @@
         <f t="shared" si="18"/>
         <v>0.29782939375719281</v>
       </c>
+      <c r="AO105" s="3">
+        <v>6.3520338929727903E-3</v>
+      </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>500</v>
       </c>
@@ -15685,8 +15999,11 @@
         <f t="shared" si="18"/>
         <v>0.28659970877548663</v>
       </c>
+      <c r="AO106" s="3">
+        <v>6.2630953734068399E-3</v>
+      </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>500</v>
       </c>
@@ -15818,8 +16135,11 @@
         <f t="shared" si="18"/>
         <v>0.27622617731291482</v>
       </c>
+      <c r="AO107" s="3">
+        <v>6.1907679553835299E-3</v>
+      </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>550</v>
       </c>
@@ -15838,8 +16158,8 @@
       <c r="F108" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G108" s="1">
-        <v>5.5229171815740202E-3</v>
+      <c r="G108" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H108" s="1">
         <v>180</v>
@@ -15950,8 +16270,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO108" s="1">
+        <v>5.5229171815740202E-3</v>
+      </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>550</v>
       </c>
@@ -15970,8 +16293,8 @@
       <c r="F109" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G109" s="1">
-        <v>1.2382683870304501E-2</v>
+      <c r="G109" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H109" s="1">
         <v>180</v>
@@ -16082,8 +16405,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO109" s="1">
+        <v>1.2382683870304501E-2</v>
+      </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>550</v>
       </c>
@@ -16102,8 +16428,8 @@
       <c r="F110" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G110" s="1">
-        <v>1.9592212225608599E-2</v>
+      <c r="G110" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H110" s="1">
         <v>180</v>
@@ -16214,8 +16540,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO110" s="1">
+        <v>1.9592212225608599E-2</v>
+      </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>550</v>
       </c>
@@ -16234,8 +16563,8 @@
       <c r="F111" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G111" s="1">
-        <v>1.3008609995776899E-2</v>
+      <c r="G111" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H111" s="1">
         <v>180</v>
@@ -16346,8 +16675,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO111" s="1">
+        <v>1.3008609995776899E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>550</v>
       </c>
@@ -16366,8 +16698,8 @@
       <c r="F112" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G112" s="1">
-        <v>8.9264049647022198E-3</v>
+      <c r="G112" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H112" s="1">
         <v>180</v>
@@ -16478,8 +16810,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO112" s="1">
+        <v>8.9264049647022198E-3</v>
+      </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>550</v>
       </c>
@@ -16498,8 +16833,8 @@
       <c r="F113" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G113" s="1">
-        <v>7.8920611983985499E-3</v>
+      <c r="G113" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H113" s="1">
         <v>180</v>
@@ -16610,8 +16945,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO113" s="1">
+        <v>7.8920611983985499E-3</v>
+      </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>550</v>
       </c>
@@ -16630,8 +16968,8 @@
       <c r="F114" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G114" s="1">
-        <v>7.1869937525795404E-3</v>
+      <c r="G114" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H114" s="1">
         <v>180</v>
@@ -16742,8 +17080,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO114" s="1">
+        <v>7.1869937525795404E-3</v>
+      </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>550</v>
       </c>
@@ -16762,8 +17103,8 @@
       <c r="F115" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G115" s="1">
-        <v>6.8745586378452803E-3</v>
+      <c r="G115" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H115" s="1">
         <v>180</v>
@@ -16874,8 +17215,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO115" s="1">
+        <v>6.8745586378452803E-3</v>
+      </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>550</v>
       </c>
@@ -16894,8 +17238,8 @@
       <c r="F116" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G116" s="1">
-        <v>6.5571044430536903E-3</v>
+      <c r="G116" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H116" s="1">
         <v>180</v>
@@ -17006,8 +17350,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO116" s="1">
+        <v>6.5571044430536903E-3</v>
+      </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>550</v>
       </c>
@@ -17026,8 +17373,8 @@
       <c r="F117" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G117" s="1">
-        <v>6.4220153916783804E-3</v>
+      <c r="G117" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H117" s="1">
         <v>180</v>
@@ -17138,8 +17485,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO117" s="1">
+        <v>6.4220153916783804E-3</v>
+      </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>550</v>
       </c>
@@ -17158,8 +17508,8 @@
       <c r="F118" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G118" s="1">
-        <v>6.2845295735867897E-3</v>
+      <c r="G118" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H118" s="1">
         <v>180</v>
@@ -17270,8 +17620,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO118" s="1">
+        <v>6.2845295735867897E-3</v>
+      </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>550</v>
       </c>
@@ -17290,8 +17643,8 @@
       <c r="F119" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G119" s="1">
-        <v>6.1443656113092902E-3</v>
+      <c r="G119" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H119" s="1">
         <v>180</v>
@@ -17402,8 +17755,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO119" s="1">
+        <v>6.1443656113092902E-3</v>
+      </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>550</v>
       </c>
@@ -17422,8 +17778,8 @@
       <c r="F120" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G120" s="1">
-        <v>6.1443656113092902E-3</v>
+      <c r="G120" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H120" s="1">
         <v>180</v>
@@ -17534,8 +17890,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO120" s="1">
+        <v>6.1443656113092902E-3</v>
+      </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>550</v>
       </c>
@@ -17667,8 +18026,11 @@
         <f t="shared" si="18"/>
         <v>0.30569728147080732</v>
       </c>
+      <c r="AO121" s="3">
+        <v>6.0149649466671798E-3</v>
+      </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>550</v>
       </c>
@@ -17800,8 +18162,11 @@
         <f t="shared" si="18"/>
         <v>0.29491442738839047</v>
       </c>
+      <c r="AO122" s="3">
+        <v>5.9298424851771401E-3</v>
+      </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>600</v>
       </c>
@@ -17820,8 +18185,8 @@
       <c r="F123" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G123" s="1">
-        <v>5.3330184543026703E-3</v>
+      <c r="G123" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H123" s="1">
         <v>180</v>
@@ -17932,8 +18297,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO123" s="1">
+        <v>5.3330184543026703E-3</v>
+      </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>600</v>
       </c>
@@ -17952,8 +18320,8 @@
       <c r="F124" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G124" s="1">
-        <v>5.3330184543026703E-3</v>
+      <c r="G124" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H124" s="1">
         <v>180</v>
@@ -18064,8 +18432,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO124" s="1">
+        <v>5.3330184543026703E-3</v>
+      </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>600</v>
       </c>
@@ -18084,8 +18455,8 @@
       <c r="F125" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G125" s="1">
-        <v>2.0431437802064498E-2</v>
+      <c r="G125" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H125" s="1">
         <v>180</v>
@@ -18196,8 +18567,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO125" s="1">
+        <v>2.0431437802064498E-2</v>
+      </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>600</v>
       </c>
@@ -18216,8 +18590,8 @@
       <c r="F126" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G126" s="1">
-        <v>1.4363513959372499E-2</v>
+      <c r="G126" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H126" s="1">
         <v>180</v>
@@ -18328,8 +18702,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO126" s="1">
+        <v>1.4363513959372499E-2</v>
+      </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>600</v>
       </c>
@@ -18348,8 +18725,8 @@
       <c r="F127" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G127" s="1">
-        <v>9.8654294861251404E-3</v>
+      <c r="G127" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H127" s="1">
         <v>180</v>
@@ -18460,8 +18837,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO127" s="1">
+        <v>9.8654294861251404E-3</v>
+      </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>600</v>
       </c>
@@ -18480,8 +18860,8 @@
       <c r="F128" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G128" s="1">
-        <v>7.5160483536060802E-3</v>
+      <c r="G128" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H128" s="1">
         <v>180</v>
@@ -18592,8 +18972,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO128" s="1">
+        <v>7.5160483536060802E-3</v>
+      </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>600</v>
       </c>
@@ -18612,8 +18995,8 @@
       <c r="F129" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G129" s="1">
-        <v>6.9061928054512502E-3</v>
+      <c r="G129" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H129" s="1">
         <v>180</v>
@@ -18724,8 +19107,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO129" s="1">
+        <v>6.9061928054512502E-3</v>
+      </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>600</v>
       </c>
@@ -18744,8 +19130,8 @@
       <c r="F130" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G130" s="1">
-        <v>6.5745436189483201E-3</v>
+      <c r="G130" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H130" s="1">
         <v>180</v>
@@ -18856,8 +19242,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO130" s="1">
+        <v>6.5745436189483201E-3</v>
+      </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>600</v>
       </c>
@@ -18876,8 +19265,8 @@
       <c r="F131" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G131" s="1">
-        <v>6.4200081425605897E-3</v>
+      <c r="G131" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H131" s="1">
         <v>180</v>
@@ -18988,8 +19377,11 @@
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO131" s="1">
+        <v>6.4200081425605897E-3</v>
+      </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>600</v>
       </c>
@@ -19008,8 +19400,8 @@
       <c r="F132" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G132" s="1">
-        <v>6.1710950930560799E-3</v>
+      <c r="G132" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H132" s="1">
         <v>180</v>
@@ -19120,8 +19512,11 @@
         <f t="shared" ref="AN132:AN195" si="28">AK132/AM132</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AO132" s="1">
+        <v>6.1710950930560799E-3</v>
+      </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>600</v>
       </c>
@@ -19140,8 +19535,8 @@
       <c r="F133" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G133" s="1">
-        <v>6.04729686235231E-3</v>
+      <c r="G133" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H133" s="1">
         <v>180</v>
@@ -19252,8 +19647,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO133" s="1">
+        <v>6.04729686235231E-3</v>
+      </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>600</v>
       </c>
@@ -19272,8 +19670,8 @@
       <c r="F134" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G134" s="1">
-        <v>5.9253871614534902E-3</v>
+      <c r="G134" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H134" s="1">
         <v>180</v>
@@ -19384,8 +19782,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO134" s="1">
+        <v>5.9253871614534902E-3</v>
+      </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>600</v>
       </c>
@@ -19404,8 +19805,8 @@
       <c r="F135" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G135" s="1">
-        <v>5.9253871614534902E-3</v>
+      <c r="G135" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H135" s="1">
         <v>180</v>
@@ -19516,8 +19917,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO135" s="1">
+        <v>5.9253871614534902E-3</v>
+      </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>600</v>
       </c>
@@ -19649,8 +20053,11 @@
         <f t="shared" si="28"/>
         <v>0.32380780533737974</v>
       </c>
+      <c r="AO136" s="3">
+        <v>5.7658983908434897E-3</v>
+      </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>600</v>
       </c>
@@ -19782,8 +20189,11 @@
         <f t="shared" si="28"/>
         <v>0.31264294950284655</v>
       </c>
+      <c r="AO137" s="3">
+        <v>5.6960614711275004E-3</v>
+      </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>650</v>
       </c>
@@ -19802,8 +20212,8 @@
       <c r="F138" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G138" s="1">
-        <v>5.1668752635398397E-3</v>
+      <c r="G138" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H138" s="1">
         <v>180</v>
@@ -19914,8 +20324,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO138" s="1">
+        <v>5.1668752635398397E-3</v>
+      </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>650</v>
       </c>
@@ -19934,8 +20347,8 @@
       <c r="F139" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G139" s="1">
-        <v>5.1668752635398397E-3</v>
+      <c r="G139" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H139" s="1">
         <v>180</v>
@@ -20046,8 +20459,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO139" s="1">
+        <v>5.1668752635398397E-3</v>
+      </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>650</v>
       </c>
@@ -20066,8 +20482,8 @@
       <c r="F140" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G140" s="1">
-        <v>5.1668752635398397E-3</v>
+      <c r="G140" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H140" s="1">
         <v>180</v>
@@ -20178,8 +20594,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO140" s="1">
+        <v>5.1668752635398397E-3</v>
+      </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>650</v>
       </c>
@@ -20198,8 +20617,8 @@
       <c r="F141" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G141" s="1">
-        <v>5.1668752635398397E-3</v>
+      <c r="G141" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H141" s="1">
         <v>180</v>
@@ -20310,8 +20729,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO141" s="1">
+        <v>5.1668752635398397E-3</v>
+      </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>650</v>
       </c>
@@ -20443,8 +20865,11 @@
         <f t="shared" si="28"/>
         <v>0.49558806127211796</v>
       </c>
+      <c r="AO142" s="3">
+        <v>8.0917786500335192E-3</v>
+      </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>650</v>
       </c>
@@ -20463,8 +20888,8 @@
       <c r="F143" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G143" s="1">
-        <v>8.0917786500335192E-3</v>
+      <c r="G143" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H143" s="1">
         <v>180</v>
@@ -20575,8 +21000,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO143" s="1">
+        <v>8.0917786500335192E-3</v>
+      </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>650</v>
       </c>
@@ -20708,8 +21136,11 @@
         <f t="shared" si="28"/>
         <v>0.45022924725729269</v>
       </c>
+      <c r="AO144" s="3">
+        <v>6.6496483108041803E-3</v>
+      </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>650</v>
       </c>
@@ -20841,8 +21272,11 @@
         <f t="shared" si="28"/>
         <v>0.43051925127637181</v>
       </c>
+      <c r="AO145" s="3">
+        <v>6.4073422876217302E-3</v>
+      </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>650</v>
       </c>
@@ -20974,8 +21408,11 @@
         <f t="shared" si="28"/>
         <v>0.41247841224272741</v>
       </c>
+      <c r="AO146" s="3">
+        <v>6.1732787635658398E-3</v>
+      </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>650</v>
       </c>
@@ -21107,8 +21544,11 @@
         <f t="shared" si="28"/>
         <v>0.39587175539775177</v>
       </c>
+      <c r="AO147" s="3">
+        <v>5.9478364756760504E-3</v>
+      </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>650</v>
       </c>
@@ -21240,8 +21680,11 @@
         <f t="shared" si="28"/>
         <v>0.38049925255195072</v>
       </c>
+      <c r="AO148" s="3">
+        <v>5.8724715021093096E-3</v>
+      </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>650</v>
       </c>
@@ -21373,8 +21816,11 @@
         <f t="shared" si="28"/>
         <v>0.36633647106010658</v>
       </c>
+      <c r="AO149" s="3">
+        <v>5.7462956222772603E-3</v>
+      </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>650</v>
       </c>
@@ -21506,8 +21952,11 @@
         <f t="shared" si="28"/>
         <v>0.35317943167709476</v>
       </c>
+      <c r="AO150" s="3">
+        <v>5.6460946219145502E-3</v>
+      </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>650</v>
       </c>
@@ -21639,8 +22088,11 @@
         <f t="shared" si="28"/>
         <v>0.34093162721417419</v>
       </c>
+      <c r="AO151" s="3">
+        <v>5.5605067893378197E-3</v>
+      </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>650</v>
       </c>
@@ -21772,8 +22224,11 @@
         <f t="shared" si="28"/>
         <v>0.3295051149768678</v>
       </c>
+      <c r="AO152" s="3">
+        <v>5.4925364494855201E-3</v>
+      </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>700</v>
       </c>
@@ -21792,8 +22247,8 @@
       <c r="F153" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G153" s="1">
-        <v>5.0236744554457502E-3</v>
+      <c r="G153" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H153" s="1">
         <v>180</v>
@@ -21904,8 +22359,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO153" s="1">
+        <v>5.0236744554457502E-3</v>
+      </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>700</v>
       </c>
@@ -21924,8 +22382,8 @@
       <c r="F154" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G154" s="1">
-        <v>5.0236744554457502E-3</v>
+      <c r="G154" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H154" s="1">
         <v>180</v>
@@ -22036,8 +22494,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO154" s="1">
+        <v>5.0236744554457502E-3</v>
+      </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>700</v>
       </c>
@@ -22056,8 +22517,8 @@
       <c r="F155" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G155" s="1">
-        <v>5.0236744554457502E-3</v>
+      <c r="G155" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H155" s="1">
         <v>180</v>
@@ -22168,8 +22629,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO155" s="1">
+        <v>5.0236744554457502E-3</v>
+      </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>700</v>
       </c>
@@ -22301,8 +22765,11 @@
         <f t="shared" si="28"/>
         <v>0.53973405680364561</v>
       </c>
+      <c r="AO156" s="3">
+        <v>1.1739070980966999E-2</v>
+      </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>700</v>
       </c>
@@ -22434,8 +22901,11 @@
         <f t="shared" si="28"/>
         <v>0.5135492329725323</v>
       </c>
+      <c r="AO157" s="3">
+        <v>8.47492910480078E-3</v>
+      </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>700</v>
       </c>
@@ -22454,8 +22924,8 @@
       <c r="F158" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G158" s="1">
-        <v>7.2394643963214697E-3</v>
+      <c r="G158" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H158" s="1">
         <v>180</v>
@@ -22566,8 +23036,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO158" s="1">
+        <v>7.2394643963214697E-3</v>
+      </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>700</v>
       </c>
@@ -22586,8 +23059,8 @@
       <c r="F159" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G159" s="1">
-        <v>7.2394643963214697E-3</v>
+      <c r="G159" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H159" s="1">
         <v>180</v>
@@ -22698,8 +23171,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO159" s="1">
+        <v>7.2394643963214697E-3</v>
+      </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>700</v>
       </c>
@@ -22831,8 +23307,11 @@
         <f t="shared" si="28"/>
         <v>0.44817776474625998</v>
       </c>
+      <c r="AO160" s="3">
+        <v>6.2538860944749801E-3</v>
+      </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>700</v>
       </c>
@@ -22964,8 +23443,11 @@
         <f t="shared" si="28"/>
         <v>0.42993008160271279</v>
       </c>
+      <c r="AO161" s="3">
+        <v>6.0387620534581203E-3</v>
+      </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>700</v>
       </c>
@@ -23097,8 +23579,11 @@
         <f t="shared" si="28"/>
         <v>0.41313089140119713</v>
       </c>
+      <c r="AO162" s="3">
+        <v>5.7777494373693998E-3</v>
+      </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>700</v>
       </c>
@@ -23230,8 +23715,11 @@
         <f t="shared" si="28"/>
         <v>0.397576062667162</v>
       </c>
+      <c r="AO163" s="3">
+        <v>5.6890362657808797E-3</v>
+      </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>700</v>
       </c>
@@ -23363,8 +23851,11 @@
         <f t="shared" si="28"/>
         <v>0.38314450846673748</v>
       </c>
+      <c r="AO164" s="3">
+        <v>5.5880288802738799E-3</v>
+      </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>700</v>
       </c>
@@ -23496,8 +23987,11 @@
         <f t="shared" si="28"/>
         <v>0.36974398533099756</v>
       </c>
+      <c r="AO165" s="3">
+        <v>5.4895828853239103E-3</v>
+      </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>700</v>
       </c>
@@ -23629,8 +24123,11 @@
         <f t="shared" si="28"/>
         <v>0.35723569922488674</v>
       </c>
+      <c r="AO166" s="3">
+        <v>5.4023286940339298E-3</v>
+      </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>700</v>
       </c>
@@ -23762,8 +24259,11 @@
         <f t="shared" si="28"/>
         <v>0.34554873635383365</v>
       </c>
+      <c r="AO167" s="3">
+        <v>5.3264959794436899E-3</v>
+      </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>750</v>
       </c>
@@ -23782,8 +24282,8 @@
       <c r="F168" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G168" s="1">
-        <v>4.8978699024378796E-3</v>
+      <c r="G168" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H168" s="1">
         <v>180</v>
@@ -23894,8 +24394,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO168" s="1">
+        <v>4.8978699024378796E-3</v>
+      </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>750</v>
       </c>
@@ -23914,8 +24417,8 @@
       <c r="F169" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G169" s="1">
-        <v>4.8978699024378796E-3</v>
+      <c r="G169" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H169" s="1">
         <v>180</v>
@@ -24026,8 +24529,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO169" s="1">
+        <v>4.8978699024378796E-3</v>
+      </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>750</v>
       </c>
@@ -24046,8 +24552,8 @@
       <c r="F170" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G170" s="1">
-        <v>4.8978699024378796E-3</v>
+      <c r="G170" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H170" s="1">
         <v>180</v>
@@ -24158,8 +24664,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO170" s="1">
+        <v>4.8978699024378796E-3</v>
+      </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>750</v>
       </c>
@@ -24178,8 +24687,8 @@
       <c r="F171" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G171" s="1">
-        <v>4.8978699024378796E-3</v>
+      <c r="G171" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H171" s="1">
         <v>180</v>
@@ -24290,8 +24799,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO171" s="1">
+        <v>4.8978699024378796E-3</v>
+      </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>750</v>
       </c>
@@ -24310,8 +24822,8 @@
       <c r="F172" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G172" s="1">
-        <v>4.8978699024378796E-3</v>
+      <c r="G172" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H172" s="1">
         <v>180</v>
@@ -24422,8 +24934,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO172" s="1">
+        <v>4.8978699024378796E-3</v>
+      </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>750</v>
       </c>
@@ -24555,8 +25070,11 @@
         <f t="shared" si="28"/>
         <v>0.50648751579166618</v>
       </c>
+      <c r="AO173" s="3">
+        <v>7.3462242621590403E-3</v>
+      </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>750</v>
       </c>
@@ -24575,8 +25093,8 @@
       <c r="F174" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G174" s="1">
-        <v>7.3462242621590403E-3</v>
+      <c r="G174" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H174" s="1">
         <v>180</v>
@@ -24687,8 +25205,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO174" s="1">
+        <v>7.3462242621590403E-3</v>
+      </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>750</v>
       </c>
@@ -24707,8 +25228,8 @@
       <c r="F175" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G175" s="1">
-        <v>7.3462242621590403E-3</v>
+      <c r="G175" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H175" s="1">
         <v>180</v>
@@ -24819,8 +25340,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO175" s="1">
+        <v>7.3462242621590403E-3</v>
+      </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>750</v>
       </c>
@@ -24952,8 +25476,11 @@
         <f t="shared" si="28"/>
         <v>0.44642559343820776</v>
       </c>
+      <c r="AO176" s="3">
+        <v>5.8999818952332602E-3</v>
+      </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>750</v>
       </c>
@@ -25085,8 +25612,11 @@
         <f t="shared" si="28"/>
         <v>0.42947687406271251</v>
       </c>
+      <c r="AO177" s="3">
+        <v>5.7321544295918098E-3</v>
+      </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>750</v>
       </c>
@@ -25218,8 +25748,11 @@
         <f t="shared" si="28"/>
         <v>0.41374122488311726</v>
       </c>
+      <c r="AO178" s="3">
+        <v>5.5113994534435502E-3</v>
+      </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>750</v>
       </c>
@@ -25351,8 +25884,11 @@
         <f t="shared" si="28"/>
         <v>0.39910174694961154</v>
       </c>
+      <c r="AO179" s="3">
+        <v>5.4332552895581896E-3</v>
+      </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>750</v>
       </c>
@@ -25484,8 +26020,11 @@
         <f t="shared" si="28"/>
         <v>0.38549415537108694</v>
       </c>
+      <c r="AO180" s="3">
+        <v>5.3246923205728502E-3</v>
+      </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>750</v>
       </c>
@@ -25617,8 +26156,11 @@
         <f t="shared" si="28"/>
         <v>0.37275758663984115</v>
       </c>
+      <c r="AO181" s="3">
+        <v>5.2642065111769701E-3</v>
+      </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>750</v>
       </c>
@@ -25750,8 +26292,11 @@
         <f t="shared" si="28"/>
         <v>0.36083617433460896</v>
       </c>
+      <c r="AO182" s="3">
+        <v>5.1908999541797002E-3</v>
+      </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>800</v>
       </c>
@@ -25770,8 +26315,8 @@
       <c r="F183" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G183" s="1">
-        <v>4.7897175742218998E-3</v>
+      <c r="G183" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H183" s="1">
         <v>180</v>
@@ -25882,8 +26427,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO183" s="1">
+        <v>4.7897175742218998E-3</v>
+      </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>800</v>
       </c>
@@ -25902,8 +26450,8 @@
       <c r="F184" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G184" s="1">
-        <v>4.7897175742218998E-3</v>
+      <c r="G184" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H184" s="1">
         <v>180</v>
@@ -26014,8 +26562,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO184" s="1">
+        <v>4.7897175742218998E-3</v>
+      </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>800</v>
       </c>
@@ -26034,8 +26585,8 @@
       <c r="F185" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G185" s="1">
-        <v>4.7897175742218998E-3</v>
+      <c r="G185" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H185" s="1">
         <v>180</v>
@@ -26146,8 +26697,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO185" s="1">
+        <v>4.7897175742218998E-3</v>
+      </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>800</v>
       </c>
@@ -26166,8 +26720,8 @@
       <c r="F186" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G186" s="1">
-        <v>4.7897175742218998E-3</v>
+      <c r="G186" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H186" s="1">
         <v>180</v>
@@ -26278,8 +26832,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO186" s="1">
+        <v>4.7897175742218998E-3</v>
+      </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>800</v>
       </c>
@@ -26298,8 +26855,8 @@
       <c r="F187" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G187" s="1">
-        <v>4.7897175742218998E-3</v>
+      <c r="G187" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H187" s="1">
         <v>180</v>
@@ -26410,8 +26967,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO187" s="1">
+        <v>4.7897175742218998E-3</v>
+      </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>800</v>
       </c>
@@ -26430,8 +26990,8 @@
       <c r="F188" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G188" s="1">
-        <v>6.4328540211270602E-3</v>
+      <c r="G188" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H188" s="1">
         <v>180</v>
@@ -26542,8 +27102,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO188" s="1">
+        <v>6.4328540211270602E-3</v>
+      </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>800</v>
       </c>
@@ -26562,8 +27125,8 @@
       <c r="F189" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G189" s="1">
-        <v>7.7309379497399796E-3</v>
+      <c r="G189" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H189" s="1">
         <v>180</v>
@@ -26674,8 +27237,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO189" s="1">
+        <v>7.7309379497399796E-3</v>
+      </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>800</v>
       </c>
@@ -26694,8 +27260,8 @@
       <c r="F190" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G190" s="1">
-        <v>7.7309379497399796E-3</v>
+      <c r="G190" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H190" s="1">
         <v>180</v>
@@ -26806,8 +27372,11 @@
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO190" s="1">
+        <v>7.7309379497399796E-3</v>
+      </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>800</v>
       </c>
@@ -26939,8 +27508,11 @@
         <f t="shared" si="28"/>
         <v>0.46199083678603592</v>
       </c>
+      <c r="AO191" s="3">
+        <v>5.7930462394746403E-3</v>
+      </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>800</v>
       </c>
@@ -27072,8 +27644,11 @@
         <f t="shared" si="28"/>
         <v>0.44489495259110379</v>
       </c>
+      <c r="AO192" s="3">
+        <v>5.6269130884625002E-3</v>
+      </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>800</v>
       </c>
@@ -27205,8 +27780,11 @@
         <f t="shared" si="28"/>
         <v>0.42901953242345342</v>
       </c>
+      <c r="AO193" s="3">
+        <v>5.4672326858030201E-3</v>
+      </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>800</v>
       </c>
@@ -27338,8 +27916,11 @@
         <f t="shared" si="28"/>
         <v>0.41429929416621919</v>
       </c>
+      <c r="AO194" s="3">
+        <v>5.2983127789092603E-3</v>
+      </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>800</v>
       </c>
@@ -27471,8 +28052,11 @@
         <f t="shared" si="28"/>
         <v>0.4004518125093629</v>
       </c>
+      <c r="AO195" s="3">
+        <v>5.2292707163819202E-3</v>
+      </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>800</v>
       </c>
@@ -27604,8 +28188,11 @@
         <f t="shared" ref="AN196:AN257" si="39">AK196/AM196</f>
         <v>0.38754347121076693</v>
       </c>
+      <c r="AO196" s="3">
+        <v>5.14531246631913E-3</v>
+      </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>800</v>
       </c>
@@ -27737,8 +28324,11 @@
         <f t="shared" si="39"/>
         <v>0.37544605722174107</v>
       </c>
+      <c r="AO197" s="3">
+        <v>5.0696953568051904E-3</v>
+      </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>850</v>
       </c>
@@ -27757,8 +28347,8 @@
       <c r="F198" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G198" s="1">
-        <v>4.6984074367013703E-3</v>
+      <c r="G198" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H198" s="1">
         <v>180</v>
@@ -27869,8 +28459,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO198" s="1">
+        <v>4.6984074367013703E-3</v>
+      </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>850</v>
       </c>
@@ -27889,8 +28482,8 @@
       <c r="F199" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G199" s="1">
-        <v>4.6984074367013703E-3</v>
+      <c r="G199" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H199" s="1">
         <v>180</v>
@@ -28001,8 +28594,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO199" s="1">
+        <v>4.6984074367013703E-3</v>
+      </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>850</v>
       </c>
@@ -28021,8 +28617,8 @@
       <c r="F200" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G200" s="1">
-        <v>4.6984074367013703E-3</v>
+      <c r="G200" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H200" s="1">
         <v>180</v>
@@ -28133,8 +28729,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO200" s="1">
+        <v>4.6984074367013703E-3</v>
+      </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>850</v>
       </c>
@@ -28153,8 +28752,8 @@
       <c r="F201" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G201" s="1">
-        <v>4.6984074367013703E-3</v>
+      <c r="G201" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H201" s="1">
         <v>180</v>
@@ -28265,8 +28864,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO201" s="1">
+        <v>4.6984074367013703E-3</v>
+      </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>850</v>
       </c>
@@ -28285,8 +28887,8 @@
       <c r="F202" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G202" s="1">
-        <v>1.4143727258835E-2</v>
+      <c r="G202" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H202" s="1">
         <v>180</v>
@@ -28397,8 +28999,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO202" s="1">
+        <v>1.4143727258835E-2</v>
+      </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>850</v>
       </c>
@@ -28417,8 +29022,8 @@
       <c r="F203" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G203" s="1">
-        <v>1.08420418677363E-2</v>
+      <c r="G203" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H203" s="1">
         <v>180</v>
@@ -28529,8 +29134,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO203" s="1">
+        <v>1.08420418677363E-2</v>
+      </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>850</v>
       </c>
@@ -28549,8 +29157,8 @@
       <c r="F204" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G204" s="1">
-        <v>9.4119025986416204E-3</v>
+      <c r="G204" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H204" s="1">
         <v>180</v>
@@ -28661,8 +29269,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO204" s="1">
+        <v>9.4119025986416204E-3</v>
+      </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>850</v>
       </c>
@@ -28681,8 +29292,8 @@
       <c r="F205" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G205" s="1">
-        <v>6.6432990034238099E-3</v>
+      <c r="G205" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H205" s="1">
         <v>180</v>
@@ -28793,8 +29404,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO205" s="1">
+        <v>6.6432990034238099E-3</v>
+      </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>850</v>
       </c>
@@ -28813,8 +29427,8 @@
       <c r="F206" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G206" s="1">
-        <v>5.8865910138327301E-3</v>
+      <c r="G206" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H206" s="1">
         <v>180</v>
@@ -28925,8 +29539,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO206" s="1">
+        <v>5.8865910138327301E-3</v>
+      </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>850</v>
       </c>
@@ -29058,8 +29675,11 @@
         <f t="shared" si="39"/>
         <v>0.45952103111238884</v>
       </c>
+      <c r="AO207" s="3">
+        <v>5.4935286291647603E-3</v>
+      </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>850</v>
       </c>
@@ -29191,8 +29811,11 @@
         <f t="shared" si="39"/>
         <v>0.44356028381248769</v>
       </c>
+      <c r="AO208" s="3">
+        <v>5.3261389899940002E-3</v>
+      </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>850</v>
       </c>
@@ -29324,8 +29947,11 @@
         <f t="shared" si="39"/>
         <v>0.42866238628839159</v>
       </c>
+      <c r="AO209" s="3">
+        <v>5.2014317221327202E-3</v>
+      </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>850</v>
       </c>
@@ -29457,8 +30083,11 @@
         <f t="shared" si="39"/>
         <v>0.41470865139292629</v>
       </c>
+      <c r="AO210" s="3">
+        <v>5.1246056682926599E-3</v>
+      </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>850</v>
       </c>
@@ -29590,8 +30219,11 @@
         <f t="shared" si="39"/>
         <v>0.40169504286167768</v>
       </c>
+      <c r="AO211" s="3">
+        <v>4.9975705379254496E-3</v>
+      </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>850</v>
       </c>
@@ -29723,8 +30355,11 @@
         <f t="shared" si="39"/>
         <v>0.38939292594290631</v>
       </c>
+      <c r="AO212" s="3">
+        <v>4.9433254476049203E-3</v>
+      </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>900</v>
       </c>
@@ -29743,8 +30378,8 @@
       <c r="F213" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G213" s="1">
-        <v>4.6052613748419702E-3</v>
+      <c r="G213" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H213" s="1">
         <v>180</v>
@@ -29855,8 +30490,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO213" s="1">
+        <v>4.6052613748419702E-3</v>
+      </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>900</v>
       </c>
@@ -29875,8 +30513,8 @@
       <c r="F214" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G214" s="1">
-        <v>4.6052613748419702E-3</v>
+      <c r="G214" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H214" s="1">
         <v>180</v>
@@ -29987,8 +30625,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO214" s="1">
+        <v>4.6052613748419702E-3</v>
+      </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>900</v>
       </c>
@@ -30007,8 +30648,8 @@
       <c r="F215" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G215" s="1">
-        <v>4.6052613748419702E-3</v>
+      <c r="G215" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H215" s="1">
         <v>180</v>
@@ -30119,8 +30760,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO215" s="1">
+        <v>4.6052613748419702E-3</v>
+      </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>900</v>
       </c>
@@ -30139,8 +30783,8 @@
       <c r="F216" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G216" s="1">
-        <v>4.6052613748419702E-3</v>
+      <c r="G216" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H216" s="1">
         <v>180</v>
@@ -30251,8 +30895,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO216" s="1">
+        <v>4.6052613748419702E-3</v>
+      </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>900</v>
       </c>
@@ -30271,8 +30918,8 @@
       <c r="F217" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G217" s="1">
-        <v>4.6052613748419702E-3</v>
+      <c r="G217" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H217" s="1">
         <v>180</v>
@@ -30383,8 +31030,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO217" s="1">
+        <v>4.6052613748419702E-3</v>
+      </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>900</v>
       </c>
@@ -30403,8 +31053,8 @@
       <c r="F218" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G218" s="1">
-        <v>4.6052613748419702E-3</v>
+      <c r="G218" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H218" s="1">
         <v>180</v>
@@ -30515,8 +31165,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO218" s="1">
+        <v>4.6052613748419702E-3</v>
+      </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>900</v>
       </c>
@@ -30535,8 +31188,8 @@
       <c r="F219" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G219" s="1">
-        <v>9.0538827316973599E-3</v>
+      <c r="G219" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H219" s="1">
         <v>180</v>
@@ -30647,8 +31300,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO219" s="1">
+        <v>9.0538827316973599E-3</v>
+      </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>900</v>
       </c>
@@ -30667,8 +31323,8 @@
       <c r="F220" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G220" s="1">
-        <v>7.0010198379618404E-3</v>
+      <c r="G220" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H220" s="1">
         <v>180</v>
@@ -30779,8 +31435,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO220" s="1">
+        <v>7.0010198379618404E-3</v>
+      </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>900</v>
       </c>
@@ -30799,8 +31458,8 @@
       <c r="F221" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G221" s="1">
-        <v>6.0155629890869698E-3</v>
+      <c r="G221" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H221" s="1">
         <v>180</v>
@@ -30911,8 +31570,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO221" s="1">
+        <v>6.0155629890869698E-3</v>
+      </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>900</v>
       </c>
@@ -30931,8 +31593,8 @@
       <c r="F222" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G222" s="1">
-        <v>6.0155629890869698E-3</v>
+      <c r="G222" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H222" s="1">
         <v>180</v>
@@ -31043,8 +31705,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO222" s="1">
+        <v>6.0155629890869698E-3</v>
+      </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>900</v>
       </c>
@@ -31063,8 +31728,8 @@
       <c r="F223" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G223" s="1">
-        <v>5.3035211785374698E-3</v>
+      <c r="G223" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H223" s="1">
         <v>180</v>
@@ -31175,8 +31840,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO223" s="1">
+        <v>5.3035211785374698E-3</v>
+      </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>900</v>
       </c>
@@ -31308,8 +31976,11 @@
         <f t="shared" si="39"/>
         <v>0.44235838010610778</v>
       </c>
+      <c r="AO224" s="3">
+        <v>5.1374121860896698E-3</v>
+      </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>900</v>
       </c>
@@ -31441,8 +32112,11 @@
         <f t="shared" si="39"/>
         <v>0.42832692950354195</v>
       </c>
+      <c r="AO225" s="3">
+        <v>4.9959933234292797E-3</v>
+      </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>900</v>
       </c>
@@ -31574,8 +32248,11 @@
         <f t="shared" si="39"/>
         <v>0.41512370304288609</v>
       </c>
+      <c r="AO226" s="3">
+        <v>4.9303920515287704E-3</v>
+      </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>900</v>
       </c>
@@ -31707,8 +32384,11 @@
         <f t="shared" si="39"/>
         <v>0.40274511596626933</v>
       </c>
+      <c r="AO227" s="3">
+        <v>4.8175392633427799E-3</v>
+      </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>950</v>
       </c>
@@ -31727,8 +32407,8 @@
       <c r="F228" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G228" s="1">
-        <v>4.5161364293444198E-3</v>
+      <c r="G228" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H228" s="1">
         <v>180</v>
@@ -31839,8 +32519,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO228" s="1">
+        <v>4.5161364293444198E-3</v>
+      </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>950</v>
       </c>
@@ -31859,8 +32542,8 @@
       <c r="F229" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G229" s="1">
-        <v>4.5161364293444198E-3</v>
+      <c r="G229" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H229" s="1">
         <v>180</v>
@@ -31971,8 +32654,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO229" s="1">
+        <v>4.5161364293444198E-3</v>
+      </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>950</v>
       </c>
@@ -31991,8 +32677,8 @@
       <c r="F230" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G230" s="1">
-        <v>4.5161364293444198E-3</v>
+      <c r="G230" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H230" s="1">
         <v>180</v>
@@ -32103,8 +32789,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO230" s="1">
+        <v>4.5161364293444198E-3</v>
+      </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>950</v>
       </c>
@@ -32123,8 +32812,8 @@
       <c r="F231" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G231" s="1">
-        <v>4.5161364293444198E-3</v>
+      <c r="G231" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H231" s="1">
         <v>180</v>
@@ -32235,8 +32924,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO231" s="1">
+        <v>4.5161364293444198E-3</v>
+      </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>950</v>
       </c>
@@ -32255,8 +32947,8 @@
       <c r="F232" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G232" s="1">
-        <v>4.5161364293444198E-3</v>
+      <c r="G232" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H232" s="1">
         <v>180</v>
@@ -32367,8 +33059,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO232" s="1">
+        <v>4.5161364293444198E-3</v>
+      </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>950</v>
       </c>
@@ -32387,8 +33082,8 @@
       <c r="F233" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G233" s="1">
-        <v>6.62240210495853E-3</v>
+      <c r="G233" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H233" s="1">
         <v>180</v>
@@ -32499,8 +33194,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO233" s="1">
+        <v>6.62240210495853E-3</v>
+      </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>950</v>
       </c>
@@ -32519,8 +33217,8 @@
       <c r="F234" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G234" s="1">
-        <v>6.62240210495853E-3</v>
+      <c r="G234" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H234" s="1">
         <v>180</v>
@@ -32631,8 +33329,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO234" s="1">
+        <v>6.62240210495853E-3</v>
+      </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>950</v>
       </c>
@@ -32651,8 +33352,8 @@
       <c r="F235" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G235" s="1">
-        <v>6.62240210495853E-3</v>
+      <c r="G235" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H235" s="1">
         <v>180</v>
@@ -32763,8 +33464,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO235" s="1">
+        <v>6.62240210495853E-3</v>
+      </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>950</v>
       </c>
@@ -32783,8 +33487,8 @@
       <c r="F236" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G236" s="1">
-        <v>6.1550516378626897E-3</v>
+      <c r="G236" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H236" s="1">
         <v>180</v>
@@ -32895,8 +33599,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO236" s="1">
+        <v>6.1550516378626897E-3</v>
+      </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>950</v>
       </c>
@@ -32915,8 +33622,8 @@
       <c r="F237" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G237" s="1">
-        <v>5.5967184310452599E-3</v>
+      <c r="G237" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H237" s="1">
         <v>180</v>
@@ -33027,8 +33734,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO237" s="1">
+        <v>5.5967184310452599E-3</v>
+      </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>950</v>
       </c>
@@ -33047,8 +33757,8 @@
       <c r="F238" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G238" s="1">
-        <v>5.2328029871225304E-3</v>
+      <c r="G238" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H238" s="1">
         <v>180</v>
@@ -33159,8 +33869,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO238" s="1">
+        <v>5.2328029871225304E-3</v>
+      </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>950</v>
       </c>
@@ -33179,8 +33892,8 @@
       <c r="F239" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G239" s="1">
-        <v>5.1080207798423804E-3</v>
+      <c r="G239" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H239" s="1">
         <v>180</v>
@@ -33291,8 +34004,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO239" s="1">
+        <v>5.1080207798423804E-3</v>
+      </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>950</v>
       </c>
@@ -33311,8 +34027,8 @@
       <c r="F240" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G240" s="1">
-        <v>4.9499986658673497E-3</v>
+      <c r="G240" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H240" s="1">
         <v>180</v>
@@ -33423,8 +34139,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO240" s="1">
+        <v>4.9499986658673497E-3</v>
+      </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>950</v>
       </c>
@@ -33556,8 +34275,11 @@
         <f t="shared" si="39"/>
         <v>0.4280287424746681</v>
       </c>
+      <c r="AO241" s="3">
+        <v>4.8377070691375196E-3</v>
+      </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>950</v>
       </c>
@@ -33689,8 +34411,11 @@
         <f t="shared" si="39"/>
         <v>0.4155313096991084</v>
       </c>
+      <c r="AO242" s="3">
+        <v>4.7438208830233803E-3</v>
+      </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1000</v>
       </c>
@@ -33709,8 +34434,8 @@
       <c r="F243" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G243" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G243" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H243" s="1">
         <v>180</v>
@@ -33821,8 +34546,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO243" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1000</v>
       </c>
@@ -33841,8 +34569,8 @@
       <c r="F244" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G244" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G244" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H244" s="1">
         <v>180</v>
@@ -33953,8 +34681,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO244" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1000</v>
       </c>
@@ -33973,8 +34704,8 @@
       <c r="F245" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G245" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G245" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H245" s="1">
         <v>180</v>
@@ -34085,8 +34816,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO245" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1000</v>
       </c>
@@ -34105,8 +34839,8 @@
       <c r="F246" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G246" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G246" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H246" s="1">
         <v>180</v>
@@ -34217,8 +34951,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO246" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1000</v>
       </c>
@@ -34237,8 +34974,8 @@
       <c r="F247" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G247" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G247" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H247" s="1">
         <v>180</v>
@@ -34349,8 +35086,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO247" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1000</v>
       </c>
@@ -34369,8 +35109,8 @@
       <c r="F248" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G248" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G248" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H248" s="1">
         <v>180</v>
@@ -34481,8 +35221,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO248" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1000</v>
       </c>
@@ -34501,8 +35244,8 @@
       <c r="F249" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G249" s="1">
-        <v>4.4448110949211698E-3</v>
+      <c r="G249" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H249" s="1">
         <v>180</v>
@@ -34613,8 +35356,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO249" s="1">
+        <v>4.4448110949211698E-3</v>
+      </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1000</v>
       </c>
@@ -34633,8 +35379,8 @@
       <c r="F250" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G250" s="1">
-        <v>5.6040200029708002E-3</v>
+      <c r="G250" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H250" s="1">
         <v>180</v>
@@ -34745,8 +35491,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO250" s="1">
+        <v>5.6040200029708002E-3</v>
+      </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1000</v>
       </c>
@@ -34765,8 +35514,8 @@
       <c r="F251" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G251" s="1">
-        <v>6.46687443288586E-3</v>
+      <c r="G251" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H251" s="1">
         <v>180</v>
@@ -34877,8 +35626,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO251" s="1">
+        <v>6.46687443288586E-3</v>
+      </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1000</v>
       </c>
@@ -34897,8 +35649,8 @@
       <c r="F252" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G252" s="1">
-        <v>5.6053831776822797E-3</v>
+      <c r="G252" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H252" s="1">
         <v>180</v>
@@ -35009,8 +35761,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO252" s="1">
+        <v>5.6053831776822797E-3</v>
+      </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1000</v>
       </c>
@@ -35029,8 +35784,8 @@
       <c r="F253" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G253" s="1">
-        <v>5.2207340200527601E-3</v>
+      <c r="G253" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H253" s="1">
         <v>180</v>
@@ -35141,8 +35896,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO253" s="1">
+        <v>5.2207340200527601E-3</v>
+      </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1000</v>
       </c>
@@ -35161,8 +35919,8 @@
       <c r="F254" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G254" s="1">
-        <v>5.0045089680545397E-3</v>
+      <c r="G254" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H254" s="1">
         <v>180</v>
@@ -35273,8 +36031,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO254" s="1">
+        <v>5.0045089680545397E-3</v>
+      </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1000</v>
       </c>
@@ -35293,8 +36054,8 @@
       <c r="F255" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G255" s="1">
-        <v>4.8667906770576697E-3</v>
+      <c r="G255" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H255" s="1">
         <v>180</v>
@@ -35405,8 +36166,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO255" s="1">
+        <v>4.8667906770576697E-3</v>
+      </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1000</v>
       </c>
@@ -35425,8 +36189,8 @@
       <c r="F256" s="1">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="G256" s="1">
-        <v>4.8667906770576697E-3</v>
+      <c r="G256" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H256" s="1">
         <v>180</v>
@@ -35537,8 +36301,11 @@
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AO256" s="1">
+        <v>4.8667906770576697E-3</v>
+      </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>1000</v>
       </c>
@@ -35669,6 +36436,9 @@
       <c r="AN257" s="3">
         <f t="shared" si="39"/>
         <v>0.42773941525664888</v>
+      </c>
+      <c r="AO257" s="3">
+        <v>4.6765767933620002E-3</v>
       </c>
     </row>
   </sheetData>
@@ -35772,6 +36542,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F19637432BAAAA4E8B613AD4CF549CCD" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1a882fa068e99a90637f35d72ee4199">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f35accf0-cd8f-4670-ac72-d44f2085032d" xmlns:ns4="95507c7c-a837-40bb-8a3d-470d6a1609d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9631af341c2920228165fa301a4a4d8" ns3:_="" ns4:_="">
     <xsd:import namespace="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
@@ -35980,7 +36756,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -35989,13 +36765,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F98C6A-6E2B-4BF6-8703-E04FA02071EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="95507c7c-a837-40bb-8a3d-470d6a1609d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4B0319-238C-4454-93A9-8E43BAF33F53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36014,27 +36801,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09983B4B-13DF-4740-912A-5320730E36D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F98C6A-6E2B-4BF6-8703-E04FA02071EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="95507c7c-a837-40bb-8a3d-470d6a1609d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>